--- a/src/main/resources/65-microservice_arch_springcloud/account_structure.xlsx
+++ b/src/main/resources/65-microservice_arch_springcloud/account_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="104">
   <si>
     <t>类名</t>
   </si>
@@ -214,7 +214,10 @@
     <t>com.github.fenixsoft.bookstore.account.domain.validation.AccountValidation$AuthenticatedAccountValidator</t>
   </si>
   <si>
-    <t>isValid(javax.validation.ConstraintValidatorContext)</t>
+    <t>isValid(com.github.fenixsoft.bookstore.domain.account.Account,javax.validation.ConstraintValidatorContext)</t>
+  </si>
+  <si>
+    <t>isValid(java.lang.Object,javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
     <t>initialize(java.lang.annotation.Annotation)</t>
@@ -1616,7 +1619,7 @@
         <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1630,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -1714,7 +1717,7 @@
         <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -1742,7 +1745,7 @@
         <v>63</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -1795,7 +1798,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
         <v>58</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
         <v>59</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
         <v>61</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -2019,7 +2022,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>59</v>
@@ -2061,7 +2064,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
         <v>61</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
         <v>17</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
         <v>24</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
@@ -2173,7 +2176,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
         <v>64</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -2257,10 +2260,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
@@ -2285,7 +2288,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
         <v>21</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -2341,7 +2344,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
@@ -2383,10 +2386,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
         <v>58</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
         <v>59</v>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
         <v>61</v>
@@ -2481,7 +2484,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
         <v>21</v>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
         <v>22</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
         <v>24</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
         <v>62</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -2621,10 +2624,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B163" t="s">
         <v>64</v>
@@ -2663,7 +2666,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
@@ -2677,10 +2680,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -2691,10 +2694,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -2705,7 +2708,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B168" t="s">
         <v>21</v>
@@ -2733,7 +2736,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -2747,7 +2750,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B170" t="s">
         <v>24</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -2775,10 +2778,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
@@ -2831,7 +2834,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -2845,7 +2848,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B178" t="s">
         <v>64</v>
@@ -2873,10 +2876,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B180" t="s">
         <v>12</v>
@@ -2901,10 +2904,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -2915,10 +2918,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
@@ -2957,7 +2960,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B186" t="s">
         <v>24</v>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -2999,10 +3002,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B188" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C188" t="s">
         <v>35</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B191" t="s">
         <v>19</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B194" t="s">
         <v>64</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B195" t="s">
         <v>12</v>
@@ -3111,10 +3114,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B196" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3139,10 +3142,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3153,7 +3156,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
@@ -3181,7 +3184,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B202" t="s">
         <v>24</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -3223,10 +3226,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C204" t="s">
         <v>35</v>
@@ -3237,7 +3240,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
@@ -3251,7 +3254,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B207" t="s">
         <v>19</v>
@@ -3295,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -3309,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -3323,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -3337,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -3348,10 +3351,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3362,16 +3365,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3389,13 +3392,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3408,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3416,19 +3419,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -3445,7 +3448,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -3462,7 +3465,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -3479,7 +3482,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -3496,7 +3499,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -3513,7 +3516,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -3530,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -3547,7 +3550,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -3564,7 +3567,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -3575,98 +3578,183 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
-        <v>96</v>
+      <c r="E20" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3684,19 +3772,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3714,19 +3802,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3744,19 +3832,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3774,19 +3862,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -3797,13 +3885,13 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -3814,115 +3902,115 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3940,19 +4028,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
